--- a/outputs_HGR/o__Bacillales_train.xlsx
+++ b/outputs_HGR/o__Bacillales_train.xlsx
@@ -7,9 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="f__Bacillaceae-b-p" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="f__Listeriaceae-b-p" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="f__Paenibacillaceae-b-p" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="f__Staphylococcaceae-b-p" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="f__Exiguobacterium-b-p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="f__Gemella-b-p" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="f__Listeriaceae-b-p" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="f__Paenibacillaceae-b-p" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="f__Staphylococcaceae-b-p" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -504,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,25 +527,35 @@
       </c>
       <c r="C1" s="11" t="inlineStr">
         <is>
+          <t>f__Exiguobacterium</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>f__Gemella</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
           <t>f__Listeriaceae</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>f__Paenibacillaceae</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
@@ -556,21 +568,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9976245862297017</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.219907803930275e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.219907803930275e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.219907803930275e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
+        <v>0.0001985458254211418</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.002176867944810458</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9976245862297017</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -583,21 +601,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9923653686366575</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.219870193443041e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.219870193443041e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.219870193443041e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
+        <v>0.000332869695422445</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.007301761667853503</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9923653686366575</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -606,25 +630,31 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus23.fasta</t>
+          <t>label_Bacillus21.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9966711101038095</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2.219940276638968e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.219940276638968e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.219940276638968e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
+        <v>0.0002872785350339601</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.003041611361089951</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9966711101038095</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -633,25 +663,31 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus3.fasta</t>
+          <t>label_Bacillus24.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9563987556656323</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.218574371403854e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.218574371403854e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.218574371403854e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
+        <v>0.001806941499778568</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04179430283452262</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9563987556656323</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -660,25 +696,31 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus30.fasta</t>
+          <t>label_Bacillus25.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.997975374103252</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.219900285714e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.219900285714e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.219900285714e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
+        <v>0.0002233695263036456</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.001801256370377841</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.997975374103252</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -691,21 +733,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.9956206467724475</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.219893766222795e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.219893766222795e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2.219893766222795e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
+        <v>8.39277312523019e-05</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.004295425496233384</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9956206467724475</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -714,25 +762,31 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus36.fasta</t>
+          <t>label_Bacillus33.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9961962534992539</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.219898785435837e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2.219898785435837e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.219898785435837e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
+        <v>9.658914901776844e-05</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.003707157351661669</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9961962534992539</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -741,25 +795,31 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus37.fasta</t>
+          <t>label_Bacillus35.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.9944015249853173</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.219882631918689e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.219882631918689e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.219882631918689e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr">
+        <v>6.857955560162517e-05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.005529895459014381</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9944015249853173</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -768,25 +828,31 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus4.fasta</t>
+          <t>label_Bacillus39.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.9988423641248121</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.220019085547889e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.220019085547889e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.220019085547889e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr">
+        <v>0.0003600818828128494</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0007975539923084437</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9988423641248121</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -795,25 +861,31 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus41.fasta</t>
+          <t>label_Bacillus4.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.99724963657087</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.219929000056483e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.219929000056483e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.219929000056483e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr">
+        <v>0.0002692560179521265</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.002481107411111209</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.99724963657087</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -822,25 +894,31 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus44.fasta</t>
+          <t>label_Bacillus42.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.9990401938872615</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2.220091844608224e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.220091844608224e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.220091844608224e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr">
+        <v>0.0002670690078345721</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0006927371048373234</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9990401938872615</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -849,25 +927,31 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus49.fasta</t>
+          <t>label_Bacillus44.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.9985411462167192</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.219908464117041e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.219908464117041e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.219908464117041e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr">
+        <v>0.0003465500873957994</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001112303695818403</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9985411462167192</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -876,25 +960,31 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus58.fasta</t>
+          <t>label_Bacillus47.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.9960241783278391</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.219913642206986e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.219913642206986e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.219913642206986e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
+        <v>0.0001593493177968913</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.003816472354297428</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9960241783278391</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -903,25 +993,31 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus66.fasta</t>
+          <t>label_Bacillus52.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.9993718216106666</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2.220214002680615e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.220214002680615e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.220214002680615e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr">
+        <v>0.0003171104458936879</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0003110679433731118</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9993718216106666</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -930,25 +1026,31 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus70.fasta</t>
+          <t>label_Bacillus61.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.996574050625029</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.219900701390483e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.219900701390483e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.219900701390483e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr">
+        <v>9.997253426228079e-05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.003325976840642148</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.996574050625029</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -957,25 +1059,31 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus74.fasta</t>
+          <t>label_Bacillus72.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.9982092567708595</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.219890931922719e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.219890931922719e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.219890931922719e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr">
+        <v>0.0002495890941067608</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.001541154134967196</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9982092567708595</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -984,25 +1092,31 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus11.fasta</t>
+          <t>label_Bacillus78.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.9972955869800983</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2.219917069251895e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.219917069251895e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2.219917069251895e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
+        <v>0.0002099295890818679</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.002494483430753136</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9972955869800983</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1011,25 +1125,31 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus20.fasta</t>
+          <t>label_Bacillus81.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.9977180428204283</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2.219960037871657e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.219960037871657e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.219960037871657e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr">
+        <v>0.0006936675285061949</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.001588289650998874</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9977180428204283</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1038,25 +1158,31 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus23.fasta</t>
+          <t>label_Bacillus11.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0.9976245862297017</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2.219907803930275e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2.219907803930275e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2.219907803930275e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr">
+        <v>0.0001985458254211418</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.002176867944810458</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9976245862297017</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1065,25 +1191,31 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus3.fasta</t>
+          <t>label_Bacillus20.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.9923653686366575</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2.219870193443041e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2.219870193443041e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2.219870193443041e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="inlineStr">
+        <v>0.000332869695422445</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.007301761667853503</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9923653686366575</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1092,25 +1224,31 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus30.fasta</t>
+          <t>label_Bacillus21.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0.9966711101038095</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.219940276638968e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.219940276638968e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.219940276638968e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="inlineStr">
+        <v>0.0002872785350339601</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.003041611361089951</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9966711101038095</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1119,25 +1257,31 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus32.fasta</t>
+          <t>label_Bacillus24.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0.9563987556656323</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2.218574371403854e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.218574371403854e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.218574371403854e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="inlineStr">
+        <v>0.001806941499778568</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04179430283452262</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9563987556656323</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1146,25 +1290,31 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus36.fasta</t>
+          <t>label_Bacillus25.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.997975374103252</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2.219900285714e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2.219900285714e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2.219900285714e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="inlineStr">
+        <v>0.0002233695263036456</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.001801256370377841</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.997975374103252</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1173,25 +1323,31 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus37.fasta</t>
+          <t>label_Bacillus32.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0.9956206467724475</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2.219893766222795e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2.219893766222795e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2.219893766222795e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="inlineStr">
+        <v>8.39277312523019e-05</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.004295425496233384</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9956206467724475</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1200,25 +1356,31 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus4.fasta</t>
+          <t>label_Bacillus33.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0.9961962534992539</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2.219898785435837e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.219898785435837e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.219898785435837e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="inlineStr">
+        <v>9.658914901776844e-05</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.003707157351661669</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9961962534992539</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1227,25 +1389,31 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus41.fasta</t>
+          <t>label_Bacillus35.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0.9944015249853173</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2.219882631918689e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2.219882631918689e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2.219882631918689e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="inlineStr">
+        <v>6.857955560162517e-05</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.005529895459014381</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9944015249853173</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1254,25 +1422,31 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus44.fasta</t>
+          <t>label_Bacillus39.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0.9988423641248121</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2.220019085547889e-14</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.220019085547889e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.220019085547889e-14</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="inlineStr">
+        <v>0.0003600818828128494</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0007975539923084437</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9988423641248121</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1281,25 +1455,31 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus49.fasta</t>
+          <t>label_Bacillus4.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0.99724963657087</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2.219929000056483e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2.219929000056483e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2.219929000056483e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="inlineStr">
+        <v>0.0002692560179521265</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.002481107411111209</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.99724963657087</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1308,25 +1488,31 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus58.fasta</t>
+          <t>label_Bacillus42.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0.9990401938872615</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2.220091844608224e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2.220091844608224e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.220091844608224e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="inlineStr">
+        <v>0.0002670690078345721</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0006927371048373234</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9990401938872615</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1335,25 +1521,31 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus66.fasta</t>
+          <t>label_Bacillus44.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0.9985411462167192</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.219908464117041e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.219908464117041e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.219908464117041e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="inlineStr">
+        <v>0.0003465500873957994</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.001112303695818403</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9985411462167192</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1362,25 +1554,31 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus70.fasta</t>
+          <t>label_Bacillus47.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0.9960241783278391</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2.219913642206986e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.219913642206986e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2.219913642206986e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="inlineStr">
+        <v>0.0001593493177968913</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.003816472354297428</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9960241783278391</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1389,25 +1587,31 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus74.fasta</t>
+          <t>label_Bacillus52.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0.9993718216106666</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2.220214002680615e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2.220214002680615e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2.220214002680615e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="inlineStr">
+        <v>0.0003171104458936879</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0003110679433731118</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9993718216106666</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1416,25 +1620,31 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus16.fasta</t>
+          <t>label_Bacillus61.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9813813387626077</v>
+        <v>0.996574050625029</v>
       </c>
       <c r="C34" t="n">
-        <v>2.219839641914004e-14</v>
+        <v>2.219900701390483e-14</v>
       </c>
       <c r="D34" t="n">
-        <v>2.219839641914004e-14</v>
+        <v>2.219900701390483e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01861866123734792</v>
+        <v>2.219900701390483e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9813813387626077</v>
-      </c>
-      <c r="G34" t="inlineStr">
+        <v>9.997253426228079e-05</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.003325976840642148</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.996574050625029</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1443,25 +1653,31 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus17.fasta</t>
+          <t>label_Bacillus72.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9817099917048987</v>
+        <v>0.9982092567708595</v>
       </c>
       <c r="C35" t="n">
-        <v>2.219835653578249e-14</v>
+        <v>2.219890931922719e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>2.219835653578249e-14</v>
+        <v>2.219890931922719e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01829000829505703</v>
+        <v>2.219890931922719e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9817099917048987</v>
-      </c>
-      <c r="G35" t="inlineStr">
+        <v>0.0002495890941067608</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.001541154134967196</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9982092567708595</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1470,25 +1686,31 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus21.fasta</t>
+          <t>label_Bacillus78.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9582360974996529</v>
+        <v>0.9972955869800983</v>
       </c>
       <c r="C36" t="n">
-        <v>2.219875235145047e-14</v>
+        <v>2.219917069251895e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>2.219875235145047e-14</v>
+        <v>2.219917069251895e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04176390250030266</v>
+        <v>2.219917069251895e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9582360974996529</v>
-      </c>
-      <c r="G36" t="inlineStr">
+        <v>0.0002099295890818679</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.002494483430753136</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9972955869800983</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1497,25 +1719,31 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus22.fasta</t>
+          <t>label_Bacillus81.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9104364276897589</v>
+        <v>0.9977180428204283</v>
       </c>
       <c r="C37" t="n">
-        <v>3.124078263075322e-13</v>
+        <v>2.219960037871657e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>3.124078263075318e-13</v>
+        <v>2.219960037871657e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08956357230961635</v>
+        <v>2.219960037871657e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9104364276897589</v>
-      </c>
-      <c r="G37" t="inlineStr">
+        <v>0.0006936675285061949</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001588289650998874</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9977180428204283</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1524,25 +1752,31 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus26.fasta</t>
+          <t>label_Bacillus16.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8856455145283929</v>
+        <v>0.9974055964888665</v>
       </c>
       <c r="C38" t="n">
-        <v>2.220006141528385e-14</v>
+        <v>2.219876712895034e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>2.220006141528385e-14</v>
+        <v>2.219876712895034e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1143544854715628</v>
+        <v>2.219876712895034e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8856455145283929</v>
-      </c>
-      <c r="G38" t="inlineStr">
+        <v>0.002594403511044802</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.219876712895034e-14</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9974055964888665</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1551,25 +1785,31 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus27.fasta</t>
+          <t>label_Bacillus17.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9710176551763251</v>
+        <v>0.9963353835675213</v>
       </c>
       <c r="C39" t="n">
-        <v>2.562441126386685e-14</v>
+        <v>2.219877061163312e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>2.562441126386682e-14</v>
+        <v>2.219877061163312e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02898234482362357</v>
+        <v>2.219877061163312e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9710176551763251</v>
-      </c>
-      <c r="G39" t="inlineStr">
+        <v>0.003664616432389885</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.219877061163312e-14</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9963353835675213</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1578,52 +1818,64 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus29.fasta</t>
+          <t>label_Bacillus22.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3481280392280055</v>
+        <v>0.997469153444191</v>
       </c>
       <c r="C40" t="n">
-        <v>2.220296315283125e-14</v>
+        <v>2.219876246018336e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>2.220296315283125e-14</v>
+        <v>2.219876246018336e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6518719607719501</v>
+        <v>2.219876246018336e-14</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6518719607719501</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.002530846555720169</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.219876246018336e-14</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.997469153444191</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>f__Bacillaceae</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus33.fasta</t>
+          <t>label_Bacillus23.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9822544704439681</v>
+        <v>0.9986032797131942</v>
       </c>
       <c r="C41" t="n">
-        <v>2.219841737361599e-14</v>
+        <v>2.219931265225923e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>2.219841737361599e-14</v>
+        <v>2.219931265225923e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01774552955598751</v>
+        <v>2.219931265225923e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9822544704439681</v>
-      </c>
-      <c r="G41" t="inlineStr">
+        <v>0.001396720286717168</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.219931265225923e-14</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9986032797131942</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1632,25 +1884,31 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus34.fasta</t>
+          <t>label_Bacillus28.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9777095999546312</v>
+        <v>0.9995860685283371</v>
       </c>
       <c r="C42" t="n">
-        <v>2.219851448202729e-14</v>
+        <v>2.220293048790598e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>2.219851448202729e-14</v>
+        <v>2.220293048790598e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0222904000453244</v>
+        <v>2.220293048790598e-14</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9777095999546312</v>
-      </c>
-      <c r="G42" t="inlineStr">
+        <v>0.0004139314715740071</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.220293048790598e-14</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9995860685283371</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1659,25 +1917,31 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus52.fasta</t>
+          <t>label_Bacillus29.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9596881422844248</v>
+        <v>0.8722540382113569</v>
       </c>
       <c r="C43" t="n">
-        <v>2.219859881785686e-14</v>
+        <v>2.218922804753332e-14</v>
       </c>
       <c r="D43" t="n">
-        <v>2.219859881785686e-14</v>
+        <v>2.218922804753332e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04031185771553075</v>
+        <v>2.218922804753332e-14</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9596881422844248</v>
-      </c>
-      <c r="G43" t="inlineStr">
+        <v>2.565321984316672e-05</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1277203085687333</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8722540382113569</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1686,25 +1950,31 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus55.fasta</t>
+          <t>label_Bacillus3.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9853946231781352</v>
+        <v>0.9971656345247247</v>
       </c>
       <c r="C44" t="n">
-        <v>2.219826213769901e-14</v>
+        <v>2.219877117182604e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>2.219826213769901e-14</v>
+        <v>2.219877117182604e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01460537682182045</v>
+        <v>2.219877117182604e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9853946231781352</v>
-      </c>
-      <c r="G44" t="inlineStr">
+        <v>0.002834365475186471</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.219877117182604e-14</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9971656345247247</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1713,25 +1983,31 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus6.fasta</t>
+          <t>label_Bacillus31.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9900523110119148</v>
+        <v>0.9995948494710044</v>
       </c>
       <c r="C45" t="n">
-        <v>2.219821443176881e-14</v>
+        <v>2.220296290627893e-14</v>
       </c>
       <c r="D45" t="n">
-        <v>2.219821443176881e-14</v>
+        <v>2.220296290627893e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00994768898804076</v>
+        <v>2.220296290627893e-14</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9900523110119148</v>
-      </c>
-      <c r="G45" t="inlineStr">
+        <v>0.0004051505289068886</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.220296290627893e-14</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9995948494710044</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1740,25 +2016,31 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus61.fasta</t>
+          <t>label_Bacillus36.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9400709227768975</v>
+        <v>0.9997909818936183</v>
       </c>
       <c r="C46" t="n">
-        <v>3.605755612066165e-13</v>
+        <v>2.22036874417102e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>3.605755612066165e-13</v>
+        <v>2.22036874417102e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>0.05992907722238131</v>
+        <v>2.22036874417102e-14</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9400709227768975</v>
-      </c>
-      <c r="G46" t="inlineStr">
+        <v>0.0002090181062928688</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.22036874417102e-14</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9997909818936183</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1767,25 +2049,31 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus67.fasta</t>
+          <t>label_Bacillus37.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9862737577794282</v>
+        <v>0.9996648984542357</v>
       </c>
       <c r="C47" t="n">
-        <v>2.219827822079161e-14</v>
+        <v>2.220322157982329e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>2.219827822079161e-14</v>
+        <v>2.220322157982329e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01372624222052743</v>
+        <v>2.220322157982329e-14</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9862737577794282</v>
-      </c>
-      <c r="G47" t="inlineStr">
+        <v>0.0003351015456756049</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.220322157982329e-14</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9996648984542357</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1794,25 +2082,31 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus69.fasta</t>
+          <t>label_Bacillus56.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9868700973283198</v>
+        <v>0.9996812361303414</v>
       </c>
       <c r="C48" t="n">
-        <v>2.219832041183611e-14</v>
+        <v>2.220328192605181e-14</v>
       </c>
       <c r="D48" t="n">
-        <v>2.219832041183611e-14</v>
+        <v>2.220328192605181e-14</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0131299026716357</v>
+        <v>2.220328192605181e-14</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9868700973283198</v>
-      </c>
-      <c r="G48" t="inlineStr">
+        <v>0.0003187638695698228</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.220328192605181e-14</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9996812361303414</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1821,25 +2115,31 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus7.fasta</t>
+          <t>label_Bacillus59.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9907587343139606</v>
+        <v>0.998896998371</v>
       </c>
       <c r="C49" t="n">
-        <v>2.219818970152772e-14</v>
+        <v>2.220039170148624e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>2.219818970152772e-14</v>
+        <v>2.220039170148624e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>0.009241265685994924</v>
+        <v>2.220039170148624e-14</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9907587343139606</v>
-      </c>
-      <c r="G49" t="inlineStr">
+        <v>0.001103001628911072</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.220039170148624e-14</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.998896998371</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1848,25 +2148,31 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus72.fasta</t>
+          <t>label_Bacillus64.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9916819361640208</v>
+        <v>0.9931314752031845</v>
       </c>
       <c r="C50" t="n">
-        <v>2.219817399646596e-14</v>
+        <v>2.219882974274081e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>2.219817399646596e-14</v>
+        <v>2.219882974274081e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.008318063835934779</v>
+        <v>2.219882974274081e-14</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9916819361640208</v>
-      </c>
-      <c r="G50" t="inlineStr">
+        <v>0.0068685247967267</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.219882974274081e-14</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9931314752031845</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1875,25 +2181,31 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus76.fasta</t>
+          <t>label_Bacillus66.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9766370501792304</v>
+        <v>0.9994953562447414</v>
       </c>
       <c r="C51" t="n">
-        <v>2.624923669666472e-14</v>
+        <v>2.22025956845602e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>2.624923669666476e-14</v>
+        <v>2.22025956845602e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02336294982071717</v>
+        <v>2.22025956845602e-14</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9766370501792304</v>
-      </c>
-      <c r="G51" t="inlineStr">
+        <v>0.0005046437551698337</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.22025956845602e-14</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9994953562447414</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1902,25 +2214,31 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus77.fasta</t>
+          <t>label_Bacillus74.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9729319109727368</v>
+        <v>0.9996332724130682</v>
       </c>
       <c r="C52" t="n">
-        <v>2.219853433595136e-14</v>
+        <v>2.220310477956744e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>2.219853433595136e-14</v>
+        <v>2.220310477956744e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>0.02706808902721878</v>
+        <v>2.220310477956744e-14</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9729319109727368</v>
-      </c>
-      <c r="G52" t="inlineStr">
+        <v>0.0003667275868429095</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.220310477956744e-14</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9996332724130682</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1929,25 +2247,31 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus10.fasta</t>
+          <t>label_Bacillus76.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9978235969488841</v>
+        <v>0.9993474512406793</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0007254676837052899</v>
+        <v>2.220205017384827e-14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0007254676837052847</v>
+        <v>2.220205017384827e-14</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0007254676837052756</v>
+        <v>2.220205017384827e-14</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9978235969488841</v>
-      </c>
-      <c r="G53" t="inlineStr">
+        <v>0.0006525487592320165</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.220205017384827e-14</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9993474512406793</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1956,25 +2280,31 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus12.fasta</t>
+          <t>label_Bacillus77.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.997144915154298</v>
+        <v>0.9981167279693172</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0009516949485673074</v>
+        <v>2.219875384764048e-14</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0009516949485673035</v>
+        <v>2.219875384764048e-14</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0009516949485672986</v>
+        <v>2.219875384764048e-14</v>
       </c>
       <c r="F54" t="n">
-        <v>0.997144915154298</v>
-      </c>
-      <c r="G54" t="inlineStr">
+        <v>0.001883272030594118</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.219875384764048e-14</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9981167279693172</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -1983,25 +2313,31 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus14.fasta</t>
+          <t>label_Bacillus8.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.995966579218254</v>
+        <v>0.9996837884009572</v>
       </c>
       <c r="C55" t="n">
-        <v>0.001344473593915301</v>
+        <v>2.220329135385589e-14</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001344473593915294</v>
+        <v>2.220329135385589e-14</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001344473593915288</v>
+        <v>2.220329135385589e-14</v>
       </c>
       <c r="F55" t="n">
-        <v>0.995966579218254</v>
-      </c>
-      <c r="G55" t="inlineStr">
+        <v>0.0003162115989540874</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.220329135385589e-14</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9996837884009572</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2010,25 +2346,31 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus15.fasta</t>
+          <t>label_Bacillus10.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9911152795304694</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.002961573489843491</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.002961573489843486</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002961573489843484</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9911152795304694</v>
-      </c>
-      <c r="G56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2037,25 +2379,31 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus19.fasta</t>
+          <t>label_Bacillus12.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9437741261710625</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01874195794297921</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01874195794297922</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0187419579429792</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9437741261710625</v>
-      </c>
-      <c r="G57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2064,25 +2412,31 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus2.fasta</t>
+          <t>label_Bacillus14.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9379742479831774</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02067525067227419</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0206752506722742</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0206752506722742</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9379742479831774</v>
-      </c>
-      <c r="G58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2091,25 +2445,31 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus40.fasta</t>
+          <t>label_Bacillus15.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9978309282128661</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0007230239290446271</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0007230239290446244</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0007230239290446165</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9978309282128661</v>
-      </c>
-      <c r="G59" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2118,25 +2478,31 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus43.fasta</t>
+          <t>label_Bacillus19.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9980077594296332</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0006640801901222988</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0006640801901222943</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.00066408019012229</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9980077594296332</v>
-      </c>
-      <c r="G60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2145,25 +2511,31 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus47.fasta</t>
+          <t>label_Bacillus2.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9861320239641409</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.004622658678619701</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.004622658678619704</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004622658678619703</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9861320239641409</v>
-      </c>
-      <c r="G61" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2172,25 +2544,31 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus48.fasta</t>
+          <t>label_Bacillus43.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9854356837656244</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.004854772078125176</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.004854772078125173</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.004854772078125177</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9854356837656244</v>
-      </c>
-      <c r="G62" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2199,25 +2577,31 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus50.fasta</t>
+          <t>label_Bacillus46.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9765463019783116</v>
+        <v>0.9842021606631168</v>
       </c>
       <c r="C63" t="n">
-        <v>0.007817899340562795</v>
+        <v>2.219895572652864e-14</v>
       </c>
       <c r="D63" t="n">
-        <v>0.007817899340562796</v>
+        <v>2.219895572652864e-14</v>
       </c>
       <c r="E63" t="n">
-        <v>0.007817899340562789</v>
+        <v>0.01579783933679446</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9765463019783116</v>
-      </c>
-      <c r="G63" t="inlineStr">
+        <v>2.219895572652864e-14</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.219895572652864e-14</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9842021606631168</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2226,25 +2610,31 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus54.fasta</t>
+          <t>label_Bacillus50.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9944592596619876</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.001846913446004194</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.00184691344600419</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001846913446004183</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9944592596619876</v>
-      </c>
-      <c r="G64" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2253,25 +2643,31 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus63.fasta</t>
+          <t>label_Bacillus51.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9921577280445611</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.002614090651812913</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.00261409065181291</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.002614090651812903</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9921577280445611</v>
-      </c>
-      <c r="G65" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2280,25 +2676,31 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus68.fasta</t>
+          <t>label_Bacillus54.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9698440797867012</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01005197340443291</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01005197340443291</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.01005197340443291</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9698440797867012</v>
-      </c>
-      <c r="G66" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2307,25 +2709,31 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus71.fasta</t>
+          <t>label_Bacillus58.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9940093936261386</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001996868791287142</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.001996868791287138</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001996868791287133</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9940093936261386</v>
-      </c>
-      <c r="G67" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2334,25 +2742,31 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus81.fasta</t>
+          <t>label_Bacillus62.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9937935495520998</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.002068816815966734</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.002068816815966729</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.002068816815966722</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9937935495520998</v>
-      </c>
-      <c r="G68" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2361,7 +2775,7 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus0.fasta</t>
+          <t>label_Bacillus69.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2377,9 +2791,15 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2388,25 +2808,31 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus24.fasta</t>
+          <t>label_Bacillus7.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9181853437725275</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>2.219930331459835e-14</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0818146562274282</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>2.219930331459835e-14</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9181853437725275</v>
-      </c>
-      <c r="G70" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2415,7 +2841,7 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus25.fasta</t>
+          <t>label_Bacillus75.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2431,9 +2857,15 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2442,7 +2874,7 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus28.fasta</t>
+          <t>label_Bacillus79.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2458,9 +2890,15 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2469,7 +2907,7 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus38.fasta</t>
+          <t>label_Bacillus0.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2485,9 +2923,15 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2496,7 +2940,7 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus42.fasta</t>
+          <t>label_Bacillus26.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2512,9 +2956,15 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2523,25 +2973,31 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus46.fasta</t>
+          <t>label_Bacillus27.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9791094899644972</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.02089051003545835</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>2.21983228625294e-14</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>2.21983228625294e-14</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9791094899644972</v>
-      </c>
-      <c r="G75" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2550,7 +3006,7 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus53.fasta</t>
+          <t>label_Bacillus30.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2566,9 +3022,15 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2577,7 +3039,7 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus56.fasta</t>
+          <t>label_Bacillus40.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2593,9 +3055,15 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2604,7 +3072,7 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus57.fasta</t>
+          <t>label_Bacillus45.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2620,9 +3088,15 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2631,7 +3105,7 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus59.fasta</t>
+          <t>label_Bacillus48.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2647,9 +3121,15 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2658,7 +3138,7 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus60.fasta</t>
+          <t>label_Bacillus5.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2674,9 +3154,15 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2685,7 +3171,7 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus64.fasta</t>
+          <t>label_Bacillus57.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2701,9 +3187,15 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2712,7 +3204,7 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus65.fasta</t>
+          <t>label_Bacillus6.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2728,9 +3220,15 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2739,7 +3237,7 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus73.fasta</t>
+          <t>label_Bacillus60.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2755,9 +3253,15 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2766,7 +3270,7 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus78.fasta</t>
+          <t>label_Bacillus63.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2782,9 +3286,15 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2793,7 +3303,7 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus80.fasta</t>
+          <t>label_Bacillus65.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2809,9 +3319,15 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2820,7 +3336,7 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus9.fasta</t>
+          <t>label_Bacillus70.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2836,9 +3352,15 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2847,25 +3369,31 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus1.fasta</t>
+          <t>label_Bacillus71.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9916835682267795</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>3.580864062772649e-13</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>3.580864062772642e-13</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.008316431772504436</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9916835682267795</v>
-      </c>
-      <c r="G87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2874,25 +3402,31 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus13.fasta</t>
+          <t>label_Bacillus80.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9903226918755542</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>8.432520612160929e-14</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>8.432520612160922e-14</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.009677308124277154</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9903226918755542</v>
-      </c>
-      <c r="G88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2901,25 +3435,31 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus18.fasta</t>
+          <t>label_Bacillus1.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9912866106828853</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1.234797207060945e-12</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>1.234797207060936e-12</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.008713389314645187</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9912866106828853</v>
-      </c>
-      <c r="G89" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2928,25 +3468,31 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus31.fasta</t>
+          <t>label_Bacillus13.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9743755245516309</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>2.223931939971561e-12</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>2.22393193997156e-12</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.02562447544392116</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9743755245516309</v>
-      </c>
-      <c r="G90" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2955,25 +3501,31 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus35.fasta</t>
+          <t>label_Bacillus18.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9771710524355419</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>9.083502267943707e-13</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>9.083502267943708e-13</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.02282894756264145</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9771710524355419</v>
-      </c>
-      <c r="G91" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -2982,25 +3534,31 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus39.fasta</t>
+          <t>label_Bacillus34.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9993818646023012</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>2.222141645976032e-14</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>2.222141645976032e-14</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0006181353976544207</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9993818646023012</v>
-      </c>
-      <c r="G92" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -3009,25 +3567,31 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus45.fasta</t>
+          <t>label_Bacillus38.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9949011533298011</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>1.598925862221896e-13</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1.598925862221889e-13</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.00509884666987896</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9949011533298011</v>
-      </c>
-      <c r="G93" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -3036,25 +3600,31 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus5.fasta</t>
+          <t>label_Bacillus41.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9878982760639905</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>2.219897742963531e-12</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>2.219897742963526e-12</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.01210172393156984</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9878982760639905</v>
-      </c>
-      <c r="G94" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -3063,25 +3633,31 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus51.fasta</t>
+          <t>label_Bacillus49.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9699449389660025</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>7.240096604941467e-12</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>7.240096604941456e-12</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.03005506101951736</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9699449389660025</v>
-      </c>
-      <c r="G95" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -3090,25 +3666,31 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus62.fasta</t>
+          <t>label_Bacillus53.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9936808506288529</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>2.393619471410421e-13</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>2.39361947141041e-13</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.006319149370668429</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9936808506288529</v>
-      </c>
-      <c r="G96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -3117,25 +3699,31 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus75.fasta</t>
+          <t>label_Bacillus55.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9956911376832289</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>4.086485094312847e-14</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>4.08648509431283e-14</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004308862316689366</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9956911376832289</v>
-      </c>
-      <c r="G97" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -3144,25 +3732,31 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus79.fasta</t>
+          <t>label_Bacillus67.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9970957008675482</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>1.067577030425664e-12</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>1.067577030425641e-12</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.002904299130316745</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9970957008675482</v>
-      </c>
-      <c r="G98" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -3171,25 +3765,97 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus8.fasta</t>
+          <t>label_Bacillus68.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9983981260023962</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>3.096207396493438e-14</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>3.096207396493424e-14</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.001601873997541837</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9983981260023962</v>
-      </c>
-      <c r="G99" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>f__Bacillaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus73.fasta</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>f__Bacillaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus9.fasta</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>f__Bacillaceae</t>
         </is>
@@ -3206,7 +3872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3227,25 +3893,35 @@
       </c>
       <c r="C1" s="11" t="inlineStr">
         <is>
+          <t>f__Exiguobacterium</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>f__Gemella</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
           <t>f__Listeriaceae</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>f__Paenibacillaceae</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
@@ -3254,162 +3930,330 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Listeria3.fasta</t>
+          <t>label_Exiguobacterium2.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.21994655788686e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9462694652108502</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.21994655788686e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.21994655788686e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>f__Listeriaceae</t>
+        <v>0.05373053478904405</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.905756085074212e-14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9462694652108502</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>f__Exiguobacterium</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Listeria3.fasta</t>
+          <t>label_Exiguobacterium2.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.21994655788686e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9462694652108502</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.21994655788686e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.21994655788686e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>f__Listeriaceae</t>
+        <v>0.05373053478904405</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.905756085074212e-14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9462694652108502</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>f__Exiguobacterium</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Listeria0.fasta</t>
+          <t>label_Exiguobacterium0.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003651973518479954</v>
+        <v>2.220079612058155e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9963480264814757</v>
+        <v>0.818726132970835</v>
       </c>
       <c r="D4" t="n">
-        <v>2.21981106545668e-14</v>
+        <v>2.220079612058155e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.21981106545668e-14</v>
+        <v>2.220079612058155e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9963480264814757</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>f__Listeriaceae</t>
+        <v>0.1812738670290762</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.220079612058155e-14</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.818726132970835</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>f__Exiguobacterium</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Listeria4.fasta</t>
+          <t>label_Exiguobacterium1.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3120546774096634</v>
+        <v>2.220017965364541e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2431557444635301</v>
+        <v>0.8698175242069461</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2223947890634033</v>
+        <v>2.220017965364541e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2223947890634032</v>
+        <v>2.220017965364541e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3120546774096634</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>f__Bacillaceae</t>
+        <v>0.1301824757929652</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.220017965364541e-14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8698175242069461</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>f__Exiguobacterium</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Listeria1.fasta</t>
+          <t>label_Exiguobacterium3.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02019152237418985</v>
+        <v>2.219877142394679e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9797430430683914</v>
+        <v>0.9966219638917554</v>
       </c>
       <c r="D6" t="n">
-        <v>2.219277072350254e-14</v>
+        <v>2.219877142394679e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>6.543455739653447e-05</v>
+        <v>2.219877142394679e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9797430430683914</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>f__Listeriaceae</t>
+        <v>0.003378036108155778</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.219877142394679e-14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9966219638917554</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>f__Exiguobacterium</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Listeria2.fasta</t>
+          <t>label_Exiguobacterium8.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02789662039687717</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9719620240402035</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6.910294649805826e-05</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>7.225261642123816e-05</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9719620240402035</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>f__Listeriaceae</t>
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>f__Exiguobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>label_Exiguobacterium4.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>f__Exiguobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>label_Exiguobacterium7.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>f__Exiguobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>label_Exiguobacterium5.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1590180909839397</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2049095450803017</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1590180909839397</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1590180909839397</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1590180909839397</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1590180909839397</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2049095450803017</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>f__Exiguobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>label_Exiguobacterium6.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>f__Exiguobacterium</t>
         </is>
       </c>
     </row>
@@ -3424,7 +4268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3445,25 +4289,35 @@
       </c>
       <c r="C1" s="11" t="inlineStr">
         <is>
+          <t>f__Exiguobacterium</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>f__Gemella</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
           <t>f__Listeriaceae</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>f__Paenibacillaceae</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
@@ -3472,34 +4326,40 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus14.fasta</t>
+          <t>label_Gemella1.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.1645168741551223</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.1645168741551223</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.1774156292243884</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1645168741551223</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
+        <v>0.1645168741551223</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1645168741551223</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1774156292243884</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>f__Gemella</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus2.fasta</t>
+          <t>label_Gemella0.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3515,18 +4375,24 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>f__Gemella</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus4.fasta</t>
+          <t>label_Gemella2.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3542,740 +4408,17 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus7.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus14.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus2.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus4.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus7.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus11.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.01769447089224312</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.219821787176459e-14</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9783157492752582</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.003989779832476333</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.9783157492752582</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus19.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.219807249203026e-14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.219807249203026e-14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9987886366393479</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.001211363360607787</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.9987886366393479</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus24.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.405508979181985e-14</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.219937573450079e-14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9990814792304968</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0009185207694368803</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9990814792304968</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus5.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.219814876337562e-14</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.219814876337562e-14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.994218885861528</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.005781114138427646</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.994218885861528</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus9.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2.220100798665699e-14</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.220100798665699e-14</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.9993768866655905</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0006231133343651751</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.9993768866655905</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus13.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus20.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus22.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus3.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus8.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1.854832116727505e-13</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.220446049250161e-14</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9999999999997701</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.220446049250161e-14</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.9999999999997701</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus0.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus1.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus15.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus16.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus17.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus6.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus10.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2.220429181918409e-14</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.220429181918409e-14</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.999969611745793</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.038825416265801e-05</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.999969611745793</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus12.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.001973887313880006</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2.219808241301028e-14</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.9980261050563782</v>
-      </c>
-      <c r="E27" t="n">
-        <v>7.629719552763569e-09</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.9980261050563782</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus18.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2.225389537045923e-12</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2.220445944924116e-14</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.9999998120625481</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.879352042959763e-07</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.9999998120625481</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus21.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2.219807773643752e-14</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.219807773643752e-14</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.9980384072508177</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.001961592749137855</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.9980384072508177</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus23.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2.220440808015843e-14</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2.220440808015843e-14</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.9999905579639425</v>
-      </c>
-      <c r="E30" t="n">
-        <v>9.442036012990481e-06</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.9999905579639425</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_Paenibacillus25.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>9.641849233856293e-14</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2.220441457348162e-14</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.999991727759205</v>
-      </c>
-      <c r="E31" t="n">
-        <v>8.272240676490556e-06</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.999991727759205</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>f__Paenibacillaceae</t>
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>f__Gemella</t>
         </is>
       </c>
     </row>
@@ -4290,7 +4433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4311,25 +4454,35 @@
       </c>
       <c r="C1" s="11" t="inlineStr">
         <is>
+          <t>f__Exiguobacterium</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>f__Gemella</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
           <t>f__Listeriaceae</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>f__Paenibacillaceae</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
@@ -4338,61 +4491,73 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus14.fasta</t>
+          <t>label_Listeria1.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.219875763366666e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.219875763366666e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.219875763366666e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.998442795153574</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.0001851403606585625</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.001372064485700873</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.998442795153574</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>f__Listeriaceae</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus15.fasta</t>
+          <t>label_Listeria1.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.219875763366666e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.219875763366666e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.219875763366666e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.998442795153574</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.0001851403606585625</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.001372064485700873</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.998442795153574</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>f__Listeriaceae</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus18.fasta</t>
+          <t>label_Listeria2.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4408,72 +4573,90 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>f__Listeriaceae</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus26.fasta</t>
+          <t>label_Listeria3.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.163415783475452</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.163415783475452</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.163415783475452</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.1829210826227403</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.1634157834754519</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1634157834754519</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1829210826227403</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>f__Listeriaceae</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus32.fasta</t>
+          <t>label_Listeria4.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.163415783475452</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.163415783475452</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.163415783475452</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.1829210826227403</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.1634157834754519</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1634157834754519</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1829210826227403</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>f__Listeriaceae</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus33.fasta</t>
+          <t>label_Listeria0.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4489,234 +4672,552 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>f__Listeriaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>f__Bacillaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>f__Exiguobacterium</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>f__Gemella</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>f__Listeriaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus12.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.120415735034594e-10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.120415735034594e-10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.120415735034594e-10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.120415735034594e-10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6882002804852905</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3117997174665433</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6882002804852905</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus18.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.219880691760886e-14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.219880691760886e-14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.219880691760886e-14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.219880691760886e-14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9931829697220239</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006817030277887394</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9931829697220239</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus25.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.21991858385258e-14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.21991858385258e-14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.21991858385258e-14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.21991858385258e-14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9634653445238373</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03653465547607392</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9634653445238373</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus5.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.219875542264085e-14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.219875542264085e-14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.219875542264085e-14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.219875542264085e-14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9982050987961688</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00179490120374247</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9982050987961688</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus12.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.120415735034594e-10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.120415735034594e-10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.120415735034594e-10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.120415735034594e-10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6882002804852905</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3117997174665433</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6882002804852905</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus18.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.219880691760886e-14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.219880691760886e-14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.219880691760886e-14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.219880691760886e-14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9931829697220239</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.006817030277887394</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9931829697220239</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus35.fasta</t>
+          <t>label_Paenibacillus25.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.21991858385258e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.21991858385258e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2.21991858385258e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2.21991858385258e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.9634653445238373</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03653465547607392</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9634653445238373</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus40.fasta</t>
+          <t>label_Paenibacillus5.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2.219875542264085e-14</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.219875542264085e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.219875542264085e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2.219875542264085e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.9982050987961688</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00179490120374247</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9982050987961688</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus7.fasta</t>
+          <t>label_Paenibacillus1.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.0004866850012846991</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.0004866850012846991</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.0004866850012846989</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.0004866850012846966</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.9975665749935767</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0004866850012846073</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9975665749935767</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus14.fasta</t>
+          <t>label_Paenibacillus17.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.0004661070592880017</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.0004661070592880017</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.0004661070592880014</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.000466107059287998</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.9976694647035602</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00046610705928791</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9976694647035602</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus15.fasta</t>
+          <t>label_Paenibacillus22.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.0004661021268982412</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.0004661021268982412</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.0004661021268982411</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0.0004661021268982404</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.9976694893655088</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0004661021268981489</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9976694893655088</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus18.fasta</t>
+          <t>label_Paenibacillus3.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.0004660961608541275</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.0004660961608541275</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.0004660961608541273</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0.000466096160854126</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.9976695191957294</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0004660961608541257</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9976695191957294</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus26.fasta</t>
+          <t>label_Paenibacillus7.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.0004660969707626034</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.0004660969707626034</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.0004660969707626034</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0.0004660969707626015</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.9976695151461868</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0004660969707625988</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9976695151461868</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus32.fasta</t>
+          <t>label_Paenibacillus11.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2.219908711350013e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.0308336848189995</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.219908711350013e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2.219908711350013e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.9691663151809117</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.219908711350013e-14</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9691663151809117</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus33.fasta</t>
+          <t>label_Paenibacillus19.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4729,75 +5230,93 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus35.fasta</t>
+          <t>label_Paenibacillus20.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.21988186526223e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.21988186526223e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.008289858436037949</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2.21988186526223e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.9917101415638733</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.21988186526223e-14</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9917101415638733</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus40.fasta</t>
+          <t>label_Paenibacillus24.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2.21988186526223e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2.21988186526223e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.008289858436037949</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2.21988186526223e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>0.9917101415638733</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.21988186526223e-14</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9917101415638733</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus7.fasta</t>
+          <t>label_Paenibacillus6.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4810,336 +5329,1470 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus17.fasta</t>
+          <t>label_Paenibacillus13.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.007967780413511597</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>5.393916174025907e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.393916174025921e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9920322195863805</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9920322195863805</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus19.fasta</t>
+          <t>label_Paenibacillus14.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001216869021666038</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.223594518503668e-14</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.223594518503668e-14</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9987831309782894</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9987831309782894</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus2.fasta</t>
+          <t>label_Paenibacillus15.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00209169669229274</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.305326497810118e-14</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.305326497810118e-14</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9979083033076611</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9979083033076611</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus21.fasta</t>
+          <t>label_Paenibacillus4.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.002955343640941091</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>3.775050318543838e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>3.775050318543856e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9970446563589834</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9970446563589834</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus23.fasta</t>
+          <t>label_Paenibacillus8.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00404456568049903</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>3.881506409622519e-14</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>3.881506409622528e-14</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9959554343194233</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9959554343194233</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus24.fasta</t>
+          <t>label_Paenibacillus0.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001948248961887201</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.493934587567694e-14</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>4.493934587567713e-14</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9980517510380229</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9980517510380229</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus4.fasta</t>
+          <t>label_Paenibacillus10.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005710754933223101</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.031383094121674e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>4.031383094121693e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9942892450666964</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9942892450666964</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus12.fasta</t>
+          <t>label_Paenibacillus16.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.002047627267653826</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.21980871841308e-14</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.21980871841308e-14</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9979523727323019</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9979523727323019</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus20.fasta</t>
+          <t>label_Paenibacillus2.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.002018575937043257</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.2198093337158e-14</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.2198093337158e-14</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9979814240629123</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9979814240629123</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus25.fasta</t>
+          <t>label_Paenibacillus21.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003278161759725037</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.219810962945086e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.219810962945086e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9967218382402305</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9967218382402305</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus28.fasta</t>
+          <t>label_Paenibacillus23.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002179783208814252</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.219809727044434e-14</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.219809727044434e-14</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9978202167911414</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9978202167911414</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>f__Staphylococcaceae</t>
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus29.fasta</t>
+          <t>label_Paenibacillus9.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001434808785680455</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.219807424896184e-14</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.219807424896184e-14</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9985651912142751</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9985651912142751</v>
-      </c>
-      <c r="G31" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>f__Bacillaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>f__Exiguobacterium</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>f__Gemella</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>f__Listeriaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>f__Paenibacillaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus13.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.640093726503245e-13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.640093726503245e-13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.640093726503246e-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.640093726503261e-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001879442467063693</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9981205575322802</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9981205575322802</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus14.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.193921694996228e-12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.193921694996228e-12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.19392169499623e-12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.19392169499624e-12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.009170936432217173</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9908290635590071</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9908290635590071</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus17.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.54572535894387e-13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.54572535894387e-13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.545725358943881e-13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.545725358943886e-13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.001894061821081505</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9981059381783002</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9981059381783002</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus25.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.171566426134004e-14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.171566426134004e-14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.171566426134019e-14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.171566426134069e-14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0007218874490431082</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.99927811255071</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.99927811255071</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus32.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.967578867421103e-13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.967578867421103e-13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.967578867421108e-13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.967578867421116e-13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.002279462636117599</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9977205373630954</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9977205373630954</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus33.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.702984597722583e-13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.702984597722583e-13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.702984597722603e-13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.70298459772262e-13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.002819889476539601</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9971801105219792</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9971801105219792</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus35.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.468065387788769e-13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.468065387788769e-13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.468065387788777e-13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.468065387788781e-13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.002334946302343245</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9976650536966696</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9976650536966696</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus40.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.858216081846399e-11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.858216081846399e-11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.858216081846392e-11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.858216081846388e-11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03152322331199132</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.96847677653368</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.96847677653368</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus7.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.277905237356307e-13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.277905237356307e-13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.277905237356327e-13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.277905237356339e-13</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.002928639959138793</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9970713600395501</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9970713600395501</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus13.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.640093726503245e-13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.640093726503245e-13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.640093726503246e-13</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.640093726503261e-13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.001879442467063693</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9981205575322802</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9981205575322802</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus14.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.193921694996228e-12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.193921694996228e-12</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.19392169499623e-12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.19392169499624e-12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.009170936432217173</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9908290635590071</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9908290635590071</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus17.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.54572535894387e-13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.54572535894387e-13</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.545725358943881e-13</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.545725358943886e-13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.001894061821081505</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9981059381783002</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9981059381783002</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus25.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6.171566426134004e-14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.171566426134004e-14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.171566426134019e-14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.171566426134069e-14</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0007218874490431082</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.99927811255071</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.99927811255071</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus32.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.967578867421103e-13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.967578867421103e-13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.967578867421108e-13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.967578867421116e-13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.002279462636117599</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9977205373630954</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9977205373630954</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus33.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.702984597722583e-13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.702984597722583e-13</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.702984597722603e-13</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.70298459772262e-13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.002819889476539601</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9971801105219792</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9971801105219792</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus35.fasta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.468065387788769e-13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.468065387788769e-13</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.468065387788777e-13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.468065387788781e-13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.002334946302343245</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9976650536966696</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9976650536966696</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus40.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.858216081846399e-11</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.858216081846399e-11</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.858216081846392e-11</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.858216081846388e-11</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.03152322331199132</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.96847677653368</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.96847677653368</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus7.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.277905237356307e-13</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.277905237356307e-13</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.277905237356327e-13</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.277905237356339e-13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.002928639959138793</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9970713600395501</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9970713600395501</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus1.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.220323422685811e-14</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.220323422685811e-14</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.220323422685811e-14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.220323422685811e-14</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.000331677455009648</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9996683225449016</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9996683225449016</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus16.fasta</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.220354976756729e-14</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.220354976756729e-14</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.220354976756729e-14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.220354976756729e-14</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0002462693297454641</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9997537306701658</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9997537306701658</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus18.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.220336622342787e-14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.220336622342787e-14</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.220336622342787e-14</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.220336622342787e-14</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0002959444547348824</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9997040555451764</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9997040555451764</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus19.fasta</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.220361047699658e-14</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.220361047699658e-14</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.220361047699658e-14</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.220361047699658e-14</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0002298418580823612</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9997701581418289</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9997701581418289</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus20.fasta</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.220356461978147e-14</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.220356461978147e-14</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.220356461978147e-14</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.220356461978147e-14</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0002422502972069956</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9997577497027043</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9997577497027043</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus22.fasta</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.22036580613699e-14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.22036580613699e-14</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.22036580613699e-14</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.22036580613699e-14</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0002169670205256182</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9997830329793855</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9997830329793855</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus23.fasta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.220356630558904e-14</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.220356630558904e-14</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.220356630558904e-14</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.220356630558904e-14</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0002417941209893733</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9997582058789218</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9997582058789218</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus4.fasta</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.220294029289347e-14</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.220294029289347e-14</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.220294029289347e-14</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.220294029289347e-14</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.00041127561418796</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9995887243857232</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9995887243857232</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus11.fasta</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus2.fasta</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus24.fasta</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus28.fasta</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5148,25 +6801,31 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus5.fasta</t>
+          <t>label_Staphylococcus29.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.006969796904074443</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2.21981520575887e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.21981520575887e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9930302030958812</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9930302030958812</v>
-      </c>
-      <c r="G32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5175,25 +6834,31 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus6.fasta</t>
+          <t>label_Staphylococcus5.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.00815799137597318</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>2.219820712370567e-14</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2.219820712370567e-14</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9918420086239825</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9918420086239825</v>
-      </c>
-      <c r="G33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5202,25 +6867,31 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus8.fasta</t>
+          <t>label_Staphylococcus6.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.009455062359702195</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>2.219822761120388e-14</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.219822761120388e-14</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9905449376402533</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9905449376402533</v>
-      </c>
-      <c r="G34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5229,7 +6900,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus0.fasta</t>
+          <t>label_Staphylococcus8.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5242,12 +6913,18 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5256,7 +6933,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus16.fasta</t>
+          <t>label_Staphylococcus15.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5269,12 +6946,18 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5283,7 +6966,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus22.fasta</t>
+          <t>label_Staphylococcus21.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5296,12 +6979,18 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5310,7 +6999,7 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus27.fasta</t>
+          <t>label_Staphylococcus26.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5323,12 +7012,18 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5337,7 +7032,7 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus31.fasta</t>
+          <t>label_Staphylococcus27.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -5350,12 +7045,18 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5364,7 +7065,7 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus38.fasta</t>
+          <t>label_Staphylococcus31.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -5377,12 +7078,18 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5391,7 +7098,7 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus9.fasta</t>
+          <t>label_Staphylococcus38.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -5404,12 +7111,18 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5418,25 +7131,31 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus1.fasta</t>
+          <t>label_Staphylococcus9.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01163691354142649</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>2.219822057511234e-14</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2.219822057511234e-14</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9883630864585291</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9883630864585291</v>
-      </c>
-      <c r="G42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5445,25 +7164,31 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus10.fasta</t>
+          <t>label_Staphylococcus0.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01126885655127946</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.219828392070043e-14</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.219828392070043e-14</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9887311434486762</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9887311434486762</v>
-      </c>
-      <c r="G43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5472,25 +7197,31 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus11.fasta</t>
+          <t>label_Staphylococcus10.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02920571150173796</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.21984096938602e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.21984096938602e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9707942884982176</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9707942884982176</v>
-      </c>
-      <c r="G44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5499,25 +7230,31 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_Staphylococcus13.fasta</t>
+          <t>label_Staphylococcus12.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0121963442741909</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>2.219822183005512e-14</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>2.219822183005512e-14</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9878036557257648</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9878036557257648</v>
-      </c>
-      <c r="G45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5530,21 +7267,27 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01222199236557798</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.21982545527315e-14</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.21982545527315e-14</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9877780076343776</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9877780076343776</v>
-      </c>
-      <c r="G46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5557,21 +7300,27 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01093061234817402</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>2.219828186429494e-14</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>2.219828186429494e-14</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9890693876517817</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9890693876517817</v>
-      </c>
-      <c r="G47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5584,21 +7333,27 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01566853194611844</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>2.219828967661318e-14</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>2.219828967661318e-14</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9843314680538372</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9843314680538372</v>
-      </c>
-      <c r="G48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5611,21 +7366,27 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.04276343513348024</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>2.219876499058214e-14</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>2.219876499058214e-14</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9572365648664752</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9572365648664752</v>
-      </c>
-      <c r="G49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5638,21 +7399,27 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.03592430052956472</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>2.219848871960529e-14</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>2.219848871960529e-14</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9640756994703908</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9640756994703908</v>
-      </c>
-      <c r="G50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
@@ -5665,21 +7432,27 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.004954285857083677</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>2.219814590199662e-14</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>2.219814590199662e-14</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9950457141428718</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9950457141428718</v>
-      </c>
-      <c r="G51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
